--- a/data/Simulations/HR1/Market Data/HR1_market_data_base.xlsx
+++ b/data/Simulations/HR1/Market Data/HR1_market_data_base.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2C6D7-F608-4D15-AF8F-8892ADDE9C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5956649-9150-4443-9A20-C01E8AD5E19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21900" yWindow="4020" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Energy, Winter" sheetId="2" r:id="rId2"/>
-    <sheet name="Secondary Reserve, Winter" sheetId="3" r:id="rId3"/>
-    <sheet name="Tertiary Reserve Up, Winter" sheetId="4" r:id="rId4"/>
-    <sheet name="Tertiary Reserve Down, Winter" sheetId="5" r:id="rId5"/>
+    <sheet name="Energy, Summer" sheetId="6" r:id="rId2"/>
+    <sheet name="Secondary Reserve, Summer" sheetId="7" r:id="rId3"/>
+    <sheet name="Tertiary Reserve Up, Summer" sheetId="8" r:id="rId4"/>
+    <sheet name="Tertiary Reserve Down, Summer" sheetId="9" r:id="rId5"/>
+    <sheet name="Energy, Winter" sheetId="2" r:id="rId6"/>
+    <sheet name="Secondary Reserve, Winter" sheetId="3" r:id="rId7"/>
+    <sheet name="Tertiary Reserve Up, Winter" sheetId="4" r:id="rId8"/>
+    <sheet name="Tertiary Reserve Down, Winter" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,52 +46,51 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F492142A-F33F-4A48-8C2B-D25BD1C79A52}</author>
-    <author>tc={91B47D5F-87C8-473D-BE1C-F1FBC6498724}</author>
-    <author>tc={A9F7422C-D372-4132-B854-CBF10A49E30A}</author>
-    <author>tc={227E47E2-0384-4588-9112-0BC8569496EC}</author>
-    <author>tc={3FB2B9D2-294A-481A-9E11-784FDBAD4739}</author>
+    <author>tc={82E46766-03E0-4C14-91E7-11DC23E1FE80}</author>
+    <author>tc={E0C33859-F9C0-451D-98A5-FABAC43C6D15}</author>
+    <author>tc={88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}</author>
+    <author>tc={573E4A7D-65BD-4B7B-8EA7-63038693DCE5}</author>
+    <author>tc={1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{82E46766-03E0-4C14-91E7-11DC23E1FE80}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 29th, 2020</t>
+    July 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{91B47D5F-87C8-473D-BE1C-F1FBC6498724}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{E0C33859-F9C0-451D-98A5-FABAC43C6D15}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 30th, 2020</t>
+    July 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{A9F7422C-D372-4132-B854-CBF10A49E30A}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 31st, 2020</t>
+    July 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{227E47E2-0384-4588-9112-0BC8569496EC}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{573E4A7D-65BD-4B7B-8EA7-63038693DCE5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 1st, 2021</t>
+    July 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{3FB2B9D2-294A-481A-9E11-784FDBAD4739}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 2nd, 2021
-</t>
+    July 17th, 2020</t>
       </text>
     </comment>
   </commentList>
@@ -97,52 +100,51 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F13DA956-E4E0-4970-89CE-93A8F6CD65D0}</author>
-    <author>tc={D4550B49-5909-4609-9991-2B3FC4CABE44}</author>
-    <author>tc={0237AD0B-6EB1-4681-93E5-9B92C7EC7CC9}</author>
-    <author>tc={C325FF7C-28F9-4793-AE75-CCAA67C2D11C}</author>
-    <author>tc={0FF48F4B-99B7-44C0-9524-4287079DBD2E}</author>
+    <author>tc={AB80A1C6-22EB-4F45-A615-0442EDDE4748}</author>
+    <author>tc={D9D923E9-03D3-4E55-A423-85BC7113D1FE}</author>
+    <author>tc={97A80AF1-EB1F-487E-9F7D-386A15F551BB}</author>
+    <author>tc={55C4C18D-BEA0-4078-A744-9715D0BAE80C}</author>
+    <author>tc={062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{F13DA956-E4E0-4970-89CE-93A8F6CD65D0}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{AB80A1C6-22EB-4F45-A615-0442EDDE4748}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 29th, 2020</t>
+    July 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{D4550B49-5909-4609-9991-2B3FC4CABE44}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{D9D923E9-03D3-4E55-A423-85BC7113D1FE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 30th, 2020</t>
+    July 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{0237AD0B-6EB1-4681-93E5-9B92C7EC7CC9}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{97A80AF1-EB1F-487E-9F7D-386A15F551BB}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 31st, 2020</t>
+    July 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{C325FF7C-28F9-4793-AE75-CCAA67C2D11C}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{55C4C18D-BEA0-4078-A744-9715D0BAE80C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 1st, 2021</t>
+    July 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{0FF48F4B-99B7-44C0-9524-4287079DBD2E}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 2nd, 2021
-</t>
+    July 17th, 2020</t>
       </text>
     </comment>
   </commentList>
@@ -150,6 +152,222 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={049D7D6F-315E-4360-AD9A-9B04FAA4D63A}</author>
+    <author>tc={90231538-AA15-40A8-A14C-AE678BBAB2D7}</author>
+    <author>tc={54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}</author>
+    <author>tc={C827F6D3-9A33-4AA8-9BEE-D91ED91E3AEF}</author>
+    <author>tc={C1028DDF-8E0B-4B65-95F2-69439E5278F2}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{049D7D6F-315E-4360-AD9A-9B04FAA4D63A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{90231538-AA15-40A8-A14C-AE678BBAB2D7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{C827F6D3-9A33-4AA8-9BEE-D91ED91E3AEF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{C1028DDF-8E0B-4B65-95F2-69439E5278F2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={053ECB76-B3D0-457F-B52F-AAE72881C653}</author>
+    <author>tc={A145369D-BB49-4757-87DC-CE83B745C245}</author>
+    <author>tc={E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}</author>
+    <author>tc={0008F7F6-FEFD-44FF-9B06-26EAC10ECBB4}</author>
+    <author>tc={B34E4319-7F99-418C-A267-F6D413897DF9}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{053ECB76-B3D0-457F-B52F-AAE72881C653}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{A145369D-BB49-4757-87DC-CE83B745C245}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{0008F7F6-FEFD-44FF-9B06-26EAC10ECBB4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{B34E4319-7F99-418C-A267-F6D413897DF9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    July 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={91D80F1D-A108-4855-BE75-5882C64785C8}</author>
+    <author>tc={42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}</author>
+    <author>tc={F492142A-F33F-4A48-8C2B-D25BD1C79A52}</author>
+    <author>tc={E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}</author>
+    <author>tc={D2B5D017-7110-4333-A6C1-A2134F4EE3D6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{91D80F1D-A108-4855-BE75-5882C64785C8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{D2B5D017-7110-4333-A6C1-A2134F4EE3D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={4313512D-A95F-437E-A255-065E16D79BD9}</author>
+    <author>tc={5ABB83F5-0667-4F07-BCA4-3A9225A77AEA}</author>
+    <author>tc={BC5ED841-48B8-4728-8352-7D400619558B}</author>
+    <author>tc={2F5D9CFC-F340-4223-8C7F-FCAFD95E3102}</author>
+    <author>tc={8A456D35-CCD9-422E-8BAA-9031C5F8E300}</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{4313512D-A95F-437E-A255-065E16D79BD9}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 13th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{5ABB83F5-0667-4F07-BCA4-3A9225A77AEA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 14th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{BC5ED841-48B8-4728-8352-7D400619558B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 15th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{2F5D9CFC-F340-4223-8C7F-FCAFD95E3102}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 16th, 2020</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{8A456D35-CCD9-422E-8BAA-9031C5F8E300}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    January 17th, 2020</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={A29A603E-395A-483A-9FAA-17008078BCAF}</author>
@@ -164,7 +382,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 29th, 2020</t>
+    January 13th, 2020</t>
       </text>
     </comment>
     <comment ref="A3" authorId="1" shapeId="0" xr:uid="{6515A72A-86CF-41BD-8320-76E1F5B1FADE}">
@@ -172,7 +390,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 30th, 2020</t>
+    January 14th, 2020</t>
       </text>
     </comment>
     <comment ref="A4" authorId="2" shapeId="0" xr:uid="{27BBEE63-A8A7-4699-A7B1-99BA633DB036}">
@@ -180,7 +398,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 31st, 2020</t>
+    January 15th, 2020</t>
       </text>
     </comment>
     <comment ref="A5" authorId="3" shapeId="0" xr:uid="{C98E3DBE-69AD-400C-89DB-1B9B3AF46DB6}">
@@ -188,7 +406,7 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 1st, 2021</t>
+    January 16th, 2020</t>
       </text>
     </comment>
     <comment ref="A6" authorId="4" shapeId="0" xr:uid="{2928A141-A609-4694-9DFD-6755D7D2B487}">
@@ -196,7 +414,7 @@
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 2nd, 2021
+    January 17th, 2020
 </t>
       </text>
     </comment>
@@ -204,54 +422,54 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DB200AC5-1BDE-484C-B8D0-E1696C2DE777}</author>
-    <author>tc={09804BBD-476C-47DC-9138-DC11C1064662}</author>
-    <author>tc={8A7EA423-B23E-43B0-83B6-019EB3815E10}</author>
-    <author>tc={E21E6D36-32A9-43B5-8AEA-F6DA4603279B}</author>
-    <author>tc={0C94BF73-E2D1-4BE1-BA9C-D2A4747EB60F}</author>
+    <author>tc={22AE99E3-3426-40FC-9E18-2B38B6714C60}</author>
+    <author>tc={7E3A3B73-9D68-4E0B-818D-FE4B4F6244CE}</author>
+    <author>tc={B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}</author>
+    <author>tc={1441AFA9-0459-492B-9789-9D88C0326E19}</author>
+    <author>tc={0612EA72-168D-449C-A9D3-EBEF9788A1AD}</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{DB200AC5-1BDE-484C-B8D0-E1696C2DE777}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{22AE99E3-3426-40FC-9E18-2B38B6714C60}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 29th, 2020</t>
+    January 13th, 2020</t>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{09804BBD-476C-47DC-9138-DC11C1064662}">
+    <comment ref="A3" authorId="1" shapeId="0" xr:uid="{7E3A3B73-9D68-4E0B-818D-FE4B4F6244CE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 30th, 2020</t>
+    January 14th, 2020</t>
       </text>
     </comment>
-    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{8A7EA423-B23E-43B0-83B6-019EB3815E10}">
+    <comment ref="A4" authorId="2" shapeId="0" xr:uid="{B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    December 31st, 2020</t>
+    January 15th, 2020</t>
       </text>
     </comment>
-    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{E21E6D36-32A9-43B5-8AEA-F6DA4603279B}">
+    <comment ref="A5" authorId="3" shapeId="0" xr:uid="{1441AFA9-0459-492B-9789-9D88C0326E19}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 1st, 2021</t>
+    January 16th, 2020</t>
       </text>
     </comment>
-    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{0C94BF73-E2D1-4BE1-BA9C-D2A4747EB60F}">
+    <comment ref="A6" authorId="4" shapeId="0" xr:uid="{0612EA72-168D-449C-A9D3-EBEF9788A1AD}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    January 2nd, 2021
+    January 17th, 2020
 </t>
       </text>
     </comment>
@@ -260,7 +478,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Scenario</t>
   </si>
@@ -334,58 +552,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -667,83 +834,161 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
-    <text>December 29th, 2020</text>
+  <threadedComment ref="A2" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{82E46766-03E0-4C14-91E7-11DC23E1FE80}">
+    <text>July 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{91B47D5F-87C8-473D-BE1C-F1FBC6498724}">
-    <text>December 30th, 2020</text>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E0C33859-F9C0-451D-98A5-FABAC43C6D15}">
+    <text>July 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{A9F7422C-D372-4132-B854-CBF10A49E30A}">
-    <text>December 31st, 2020</text>
+  <threadedComment ref="A4" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{88BFEBBC-FE07-4C46-84FE-86AA3FD53D99}">
+    <text>July 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{227E47E2-0384-4588-9112-0BC8569496EC}">
-    <text>January 1st, 2021</text>
+  <threadedComment ref="A5" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{573E4A7D-65BD-4B7B-8EA7-63038693DCE5}">
+    <text>July 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{3FB2B9D2-294A-481A-9E11-784FDBAD4739}">
-    <text xml:space="preserve">January 2nd, 2021
-</text>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{1E55EEEE-BA79-4195-8A1D-45154C4DDDB5}">
+    <text>July 17th, 2020</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{F13DA956-E4E0-4970-89CE-93A8F6CD65D0}">
-    <text>December 29th, 2020</text>
+  <threadedComment ref="A2" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{AB80A1C6-22EB-4F45-A615-0442EDDE4748}">
+    <text>July 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D4550B49-5909-4609-9991-2B3FC4CABE44}">
-    <text>December 30th, 2020</text>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D9D923E9-03D3-4E55-A423-85BC7113D1FE}">
+    <text>July 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0237AD0B-6EB1-4681-93E5-9B92C7EC7CC9}">
-    <text>December 31st, 2020</text>
+  <threadedComment ref="A4" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{97A80AF1-EB1F-487E-9F7D-386A15F551BB}">
+    <text>July 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C325FF7C-28F9-4793-AE75-CCAA67C2D11C}">
-    <text>January 1st, 2021</text>
+  <threadedComment ref="A5" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{55C4C18D-BEA0-4078-A744-9715D0BAE80C}">
+    <text>July 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0FF48F4B-99B7-44C0-9524-4287079DBD2E}">
-    <text xml:space="preserve">January 2nd, 2021
-</text>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{062A73CD-E3CE-45A0-B30F-C084FCAF6E8B}">
+    <text>July 17th, 2020</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{A29A603E-395A-483A-9FAA-17008078BCAF}">
-    <text>December 29th, 2020</text>
+  <threadedComment ref="A2" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{049D7D6F-315E-4360-AD9A-9B04FAA4D63A}">
+    <text>July 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{6515A72A-86CF-41BD-8320-76E1F5B1FADE}">
-    <text>December 30th, 2020</text>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{90231538-AA15-40A8-A14C-AE678BBAB2D7}">
+    <text>July 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{27BBEE63-A8A7-4699-A7B1-99BA633DB036}">
-    <text>December 31st, 2020</text>
+  <threadedComment ref="A4" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{54B6800D-CAED-4CE6-9DA8-8CFBEE3BBD62}">
+    <text>July 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C98E3DBE-69AD-400C-89DB-1B9B3AF46DB6}">
-    <text>January 1st, 2021</text>
+  <threadedComment ref="A5" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C827F6D3-9A33-4AA8-9BEE-D91ED91E3AEF}">
+    <text>July 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2928A141-A609-4694-9DFD-6755D7D2B487}">
-    <text xml:space="preserve">January 2nd, 2021
-</text>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C1028DDF-8E0B-4B65-95F2-69439E5278F2}">
+    <text>July 17th, 2020</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{DB200AC5-1BDE-484C-B8D0-E1696C2DE777}">
-    <text>December 29th, 2020</text>
+  <threadedComment ref="A2" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{053ECB76-B3D0-457F-B52F-AAE72881C653}">
+    <text>July 13th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{09804BBD-476C-47DC-9138-DC11C1064662}">
-    <text>December 30th, 2020</text>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{A145369D-BB49-4757-87DC-CE83B745C245}">
+    <text>July 14th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A4" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{8A7EA423-B23E-43B0-83B6-019EB3815E10}">
-    <text>December 31st, 2020</text>
+  <threadedComment ref="A4" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E4229DCD-9BFC-4BD1-AD9E-DABD22B6781C}">
+    <text>July 15th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A5" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E21E6D36-32A9-43B5-8AEA-F6DA4603279B}">
-    <text>January 1st, 2021</text>
+  <threadedComment ref="A5" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0008F7F6-FEFD-44FF-9B06-26EAC10ECBB4}">
+    <text>July 16th, 2020</text>
   </threadedComment>
-  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0C94BF73-E2D1-4BE1-BA9C-D2A4747EB60F}">
-    <text xml:space="preserve">January 2nd, 2021
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{B34E4319-7F99-418C-A267-F6D413897DF9}">
+    <text>July 17th, 2020</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment5.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{91D80F1D-A108-4855-BE75-5882C64785C8}">
+    <text>January 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{42A1CB46-26A8-48FA-9A3E-D5F88EEA069C}">
+    <text>January 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{F492142A-F33F-4A48-8C2B-D25BD1C79A52}">
+    <text>January 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{E6D2BEF3-43D0-4508-B5EC-D2CF7D6EDDDF}">
+    <text>January 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{D2B5D017-7110-4333-A6C1-A2134F4EE3D6}">
+    <text>January 17th, 2020</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment6.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-08T10:20:31.43" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{4313512D-A95F-437E-A255-065E16D79BD9}">
+    <text>January 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-08T10:20:46.99" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{5ABB83F5-0667-4F07-BCA4-3A9225A77AEA}">
+    <text>January 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{BC5ED841-48B8-4728-8352-7D400619558B}">
+    <text>January 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-08T10:22:08.85" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2F5D9CFC-F340-4223-8C7F-FCAFD95E3102}">
+    <text>January 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-08T10:24:32.20" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{8A456D35-CCD9-422E-8BAA-9031C5F8E300}">
+    <text>January 17th, 2020</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment7.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{A29A603E-395A-483A-9FAA-17008078BCAF}">
+    <text>January 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{6515A72A-86CF-41BD-8320-76E1F5B1FADE}">
+    <text>January 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{27BBEE63-A8A7-4699-A7B1-99BA633DB036}">
+    <text>January 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{C98E3DBE-69AD-400C-89DB-1B9B3AF46DB6}">
+    <text>January 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{2928A141-A609-4694-9DFD-6755D7D2B487}">
+    <text xml:space="preserve">January 17th, 2020
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment8.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A2" dT="2023-02-02T10:24:39.07" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{22AE99E3-3426-40FC-9E18-2B38B6714C60}">
+    <text>January 13th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2023-02-02T10:24:59.51" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{7E3A3B73-9D68-4E0B-818D-FE4B4F6244CE}">
+    <text>January 14th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2023-02-02T10:25:11.16" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{B9D3449D-E35E-46A4-9D9F-D2E16D9500E6}">
+    <text>January 15th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2023-02-02T10:25:27.29" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{1441AFA9-0459-492B-9789-9D88C0326E19}">
+    <text>January 16th, 2020</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2023-02-02T10:25:47.13" personId="{2919F006-6E75-40CE-99E6-B510B5691432}" id="{0612EA72-168D-449C-A9D3-EBEF9788A1AD}">
+    <text xml:space="preserve">January 17th, 2020
 </text>
   </threadedComment>
 </ThreadedComments>
@@ -753,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +1028,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,7 +1036,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -799,7 +1044,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
@@ -808,11 +1053,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA05D27-2923-4356-8892-D5CC7369F4B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8148E-B092-4250-B42C-B4D8265B477C}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,76 +1144,76 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>32.4</v>
+        <v>34.65</v>
       </c>
       <c r="C2" s="2">
-        <v>24.1</v>
+        <v>27.5</v>
       </c>
       <c r="D2" s="2">
-        <v>19.72</v>
+        <v>25.7</v>
       </c>
       <c r="E2" s="2">
-        <v>18.96</v>
+        <v>25.1</v>
       </c>
       <c r="F2" s="2">
-        <v>19.510000000000002</v>
+        <v>25.1</v>
       </c>
       <c r="G2" s="2">
-        <v>22.07</v>
+        <v>26.51</v>
       </c>
       <c r="H2" s="2">
-        <v>28.7</v>
+        <v>34.64</v>
       </c>
       <c r="I2" s="2">
-        <v>39.049999999999997</v>
+        <v>39.270000000000003</v>
       </c>
       <c r="J2" s="2">
-        <v>45.01</v>
+        <v>38.119999999999997</v>
       </c>
       <c r="K2" s="2">
-        <v>46.85</v>
+        <v>37.68</v>
       </c>
       <c r="L2" s="2">
-        <v>47.02</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="M2" s="2">
-        <v>44.3</v>
+        <v>33.659999999999997</v>
       </c>
       <c r="N2" s="2">
-        <v>41.05</v>
+        <v>34.28</v>
       </c>
       <c r="O2" s="2">
-        <v>39.049999999999997</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2">
-        <v>38.68</v>
+        <v>34.65</v>
       </c>
       <c r="Q2" s="2">
-        <v>37.85</v>
+        <v>32.840000000000003</v>
       </c>
       <c r="R2" s="2">
-        <v>41.09</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2">
-        <v>45.36</v>
+        <v>37.409999999999997</v>
       </c>
       <c r="T2" s="2">
-        <v>50.29</v>
+        <v>36.18</v>
       </c>
       <c r="U2" s="2">
-        <v>52.97</v>
+        <v>36.1</v>
       </c>
       <c r="V2" s="2">
-        <v>54.26</v>
+        <v>38.99</v>
       </c>
       <c r="W2" s="2">
-        <v>49.75</v>
+        <v>39</v>
       </c>
       <c r="X2" s="2">
-        <v>46.24</v>
+        <v>38.99</v>
       </c>
       <c r="Y2" s="2">
-        <v>43.6</v>
+        <v>34.64</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -976,76 +1221,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>43.84</v>
+        <v>34.47</v>
       </c>
       <c r="C3" s="2">
-        <v>40.43</v>
+        <v>29.79</v>
       </c>
       <c r="D3" s="2">
-        <v>36.75</v>
+        <v>28.16</v>
       </c>
       <c r="E3" s="2">
-        <v>34.31</v>
+        <v>27.74</v>
       </c>
       <c r="F3" s="2">
-        <v>33.5</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2">
-        <v>36.03</v>
+        <v>26.77</v>
       </c>
       <c r="H3" s="2">
-        <v>45.55</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2">
-        <v>49.52</v>
+        <v>27.85</v>
       </c>
       <c r="J3" s="2">
-        <v>53.01</v>
+        <v>33.26</v>
       </c>
       <c r="K3" s="2">
-        <v>55.6</v>
+        <v>36.4</v>
       </c>
       <c r="L3" s="2">
-        <v>55.68</v>
+        <v>36.15</v>
       </c>
       <c r="M3" s="2">
-        <v>53.7</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="N3" s="2">
-        <v>51.86</v>
+        <v>36.979999999999997</v>
       </c>
       <c r="O3" s="2">
-        <v>52.01</v>
+        <v>37.5</v>
       </c>
       <c r="P3" s="2">
-        <v>50.45</v>
+        <v>37.130000000000003</v>
       </c>
       <c r="Q3" s="2">
-        <v>50.27</v>
+        <v>36.57</v>
       </c>
       <c r="R3" s="2">
-        <v>52.36</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="S3" s="2">
-        <v>54.96</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="T3" s="2">
-        <v>59.96</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="U3" s="2">
-        <v>59.86</v>
+        <v>37</v>
       </c>
       <c r="V3" s="2">
-        <v>56.5</v>
+        <v>35.42</v>
       </c>
       <c r="W3" s="2">
-        <v>52.95</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="X3" s="2">
-        <v>51.13</v>
+        <v>35.01</v>
       </c>
       <c r="Y3" s="2">
-        <v>47.64</v>
+        <v>31.97</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -1053,76 +1298,76 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>42.11</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="C4" s="2">
-        <v>37.03</v>
+        <v>27.82</v>
       </c>
       <c r="D4" s="2">
-        <v>35.25</v>
+        <v>26.69</v>
       </c>
       <c r="E4" s="2">
-        <v>31.82</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2">
-        <v>31.67</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2">
-        <v>34</v>
+        <v>26.22</v>
       </c>
       <c r="H4" s="2">
-        <v>36.99</v>
+        <v>27.18</v>
       </c>
       <c r="I4" s="2">
-        <v>45.86</v>
+        <v>27.7</v>
       </c>
       <c r="J4" s="2">
-        <v>50.47</v>
+        <v>31.63</v>
       </c>
       <c r="K4" s="2">
-        <v>54.07</v>
+        <v>34.07</v>
       </c>
       <c r="L4" s="2">
-        <v>54.66</v>
+        <v>31.26</v>
       </c>
       <c r="M4" s="2">
-        <v>54</v>
+        <v>27.77</v>
       </c>
       <c r="N4" s="2">
-        <v>53.48</v>
+        <v>33</v>
       </c>
       <c r="O4" s="2">
-        <v>52.36</v>
+        <v>34.99</v>
       </c>
       <c r="P4" s="2">
-        <v>52.84</v>
+        <v>32.99</v>
       </c>
       <c r="Q4" s="2">
-        <v>53.95</v>
+        <v>33.53</v>
       </c>
       <c r="R4" s="2">
-        <v>54.59</v>
+        <v>34.07</v>
       </c>
       <c r="S4" s="2">
-        <v>57.76</v>
+        <v>32.57</v>
       </c>
       <c r="T4" s="2">
-        <v>61.08</v>
+        <v>27.77</v>
       </c>
       <c r="U4" s="2">
-        <v>60.54</v>
+        <v>29.36</v>
       </c>
       <c r="V4" s="2">
-        <v>56.75</v>
+        <v>34.07</v>
       </c>
       <c r="W4" s="2">
-        <v>52.44</v>
+        <v>37.11</v>
       </c>
       <c r="X4" s="2">
-        <v>51.86</v>
+        <v>36.92</v>
       </c>
       <c r="Y4" s="2">
-        <v>52.26</v>
+        <v>31.14</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -1130,76 +1375,76 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>50.87</v>
+        <v>36.19</v>
       </c>
       <c r="C5" s="2">
-        <v>48.19</v>
+        <v>32.5</v>
       </c>
       <c r="D5" s="2">
-        <v>44.68</v>
+        <v>27.82</v>
       </c>
       <c r="E5" s="2">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
       <c r="F5" s="2">
+        <v>27.04</v>
+      </c>
+      <c r="G5" s="2">
+        <v>27.82</v>
+      </c>
+      <c r="H5" s="2">
+        <v>29.24</v>
+      </c>
+      <c r="I5" s="2">
+        <v>36.03</v>
+      </c>
+      <c r="J5" s="2">
+        <v>36.22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>37</v>
+      </c>
+      <c r="L5" s="2">
         <v>36.799999999999997</v>
       </c>
-      <c r="G5" s="2">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="H5" s="2">
-        <v>36.6</v>
-      </c>
-      <c r="I5" s="2">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="J5" s="2">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="K5" s="2">
-        <v>36.549999999999997</v>
-      </c>
-      <c r="L5" s="2">
-        <v>37.549999999999997</v>
-      </c>
       <c r="M5" s="2">
-        <v>37.549999999999997</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="N5" s="2">
-        <v>37.549999999999997</v>
+        <v>37.65</v>
       </c>
       <c r="O5" s="2">
-        <v>37.549999999999997</v>
+        <v>39.93</v>
       </c>
       <c r="P5" s="2">
-        <v>36.6</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Q5" s="2">
-        <v>35.5</v>
+        <v>37.65</v>
       </c>
       <c r="R5" s="2">
-        <v>36</v>
+        <v>37.51</v>
       </c>
       <c r="S5" s="2">
-        <v>38.5</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="T5" s="2">
-        <v>52.01</v>
+        <v>36.56</v>
       </c>
       <c r="U5" s="2">
-        <v>55.16</v>
+        <v>36.32</v>
       </c>
       <c r="V5" s="2">
-        <v>57.4</v>
+        <v>36.5</v>
       </c>
       <c r="W5" s="2">
-        <v>53.86</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="X5" s="2">
-        <v>53.45</v>
+        <v>36.72</v>
       </c>
       <c r="Y5" s="2">
-        <v>49.72</v>
+        <v>34.72</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -1207,76 +1452,76 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>46.69</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="C6" s="2">
-        <v>42.43</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
-        <v>40.1</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
-        <v>39.11</v>
+        <v>26.5</v>
       </c>
       <c r="F6" s="2">
-        <v>37.549999999999997</v>
+        <v>26.5</v>
       </c>
       <c r="G6" s="2">
-        <v>37.700000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="H6" s="2">
-        <v>39.6</v>
+        <v>28.56</v>
       </c>
       <c r="I6" s="2">
-        <v>43.34</v>
+        <v>28.34</v>
       </c>
       <c r="J6" s="2">
-        <v>48.45</v>
+        <v>30.02</v>
       </c>
       <c r="K6" s="2">
-        <v>51.6</v>
+        <v>31.18</v>
       </c>
       <c r="L6" s="2">
-        <v>52</v>
+        <v>30.53</v>
       </c>
       <c r="M6" s="2">
-        <v>51.25</v>
+        <v>30.47</v>
       </c>
       <c r="N6" s="2">
-        <v>50.56</v>
+        <v>33.49</v>
       </c>
       <c r="O6" s="2">
-        <v>50.57</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="P6" s="2">
-        <v>50.57</v>
+        <v>35.74</v>
       </c>
       <c r="Q6" s="2">
-        <v>48.45</v>
+        <v>34.49</v>
       </c>
       <c r="R6" s="2">
-        <v>50.25</v>
+        <v>33.99</v>
       </c>
       <c r="S6" s="2">
-        <v>54.23</v>
+        <v>33.49</v>
       </c>
       <c r="T6" s="2">
-        <v>58.65</v>
+        <v>32.24</v>
       </c>
       <c r="U6" s="2">
-        <v>60.43</v>
+        <v>35.01</v>
       </c>
       <c r="V6" s="2">
-        <v>60.03</v>
+        <v>36.049999999999997</v>
       </c>
       <c r="W6" s="2">
-        <v>55.03</v>
+        <v>37</v>
       </c>
       <c r="X6" s="2">
-        <v>52.25</v>
+        <v>37</v>
       </c>
       <c r="Y6" s="2">
-        <v>48.45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -1313,11 +1558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2832E-D631-4518-B3FA-D6C6FF68485B}">
-  <dimension ref="A1:Y6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514FB8F9-B431-4FC3-A01F-C31ABBD1F26D}">
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1404,385 +1649,411 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>28.03</v>
+        <v>11.09</v>
       </c>
       <c r="C2" s="2">
-        <v>26.28</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="D2" s="2">
-        <v>23.32</v>
+        <v>10.62</v>
       </c>
       <c r="E2" s="2">
-        <v>23.99</v>
+        <v>10.62</v>
       </c>
       <c r="F2" s="2">
-        <v>23.5</v>
+        <v>10.62</v>
       </c>
       <c r="G2" s="2">
-        <v>21.67</v>
+        <v>10.62</v>
       </c>
       <c r="H2" s="2">
-        <v>19.920000000000002</v>
+        <v>10.42</v>
       </c>
       <c r="I2" s="2">
-        <v>14.28</v>
+        <v>6.72</v>
       </c>
       <c r="J2" s="2">
-        <v>10.5</v>
+        <v>6.96</v>
       </c>
       <c r="K2" s="2">
-        <v>8.92</v>
+        <v>7.46</v>
       </c>
       <c r="L2" s="2">
-        <v>5.33</v>
+        <v>10.48</v>
       </c>
       <c r="M2" s="2">
-        <v>4.49</v>
+        <v>9.4</v>
       </c>
       <c r="N2" s="2">
-        <v>5.24</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="O2" s="2">
-        <v>7.99</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="P2" s="2">
-        <v>8.9</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="Q2" s="2">
-        <v>9.65</v>
+        <v>10.89</v>
       </c>
       <c r="R2" s="2">
-        <v>7.63</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="S2" s="2">
-        <v>3.93</v>
+        <v>8.06</v>
       </c>
       <c r="T2" s="2">
-        <v>5.3</v>
+        <v>8.06</v>
       </c>
       <c r="U2" s="2">
-        <v>3.15</v>
+        <v>8.75</v>
       </c>
       <c r="V2" s="2">
-        <v>3.15</v>
+        <v>6.17</v>
       </c>
       <c r="W2" s="2">
-        <v>5.33</v>
+        <v>6.6</v>
       </c>
       <c r="X2" s="2">
-        <v>7.42</v>
+        <v>5.72</v>
       </c>
       <c r="Y2" s="2">
-        <v>7.91</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>14.29</v>
-      </c>
-      <c r="C3" s="2">
-        <v>12.98</v>
-      </c>
-      <c r="D3" s="2">
-        <v>9.14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11.13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>11.8</v>
-      </c>
-      <c r="G3" s="2">
-        <v>12.32</v>
-      </c>
-      <c r="H3" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" s="2">
-        <v>20.84</v>
-      </c>
-      <c r="J3" s="2">
-        <v>9.7200000000000006</v>
-      </c>
-      <c r="K3" s="2">
-        <v>10.98</v>
-      </c>
-      <c r="L3" s="2">
-        <v>6.47</v>
-      </c>
-      <c r="M3" s="2">
-        <v>6.19</v>
-      </c>
-      <c r="N3" s="2">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="O3" s="2">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="P3" s="2">
-        <v>7.61</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>7.61</v>
-      </c>
-      <c r="R3" s="2">
-        <v>9.51</v>
-      </c>
-      <c r="S3" s="2">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="T3" s="2">
-        <v>3.15</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2.86</v>
-      </c>
-      <c r="V3" s="2">
-        <v>5.19</v>
-      </c>
-      <c r="W3" s="2">
-        <v>7.61</v>
-      </c>
-      <c r="X3" s="2">
-        <v>11.32</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>11.9</v>
+      <c r="B3">
+        <v>11.27</v>
+      </c>
+      <c r="C3">
+        <v>12.24</v>
+      </c>
+      <c r="D3">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="E3">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="F3">
+        <v>8.84</v>
+      </c>
+      <c r="G3">
+        <v>8.93</v>
+      </c>
+      <c r="H3">
+        <v>17.93</v>
+      </c>
+      <c r="I3">
+        <v>15.6</v>
+      </c>
+      <c r="J3">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="K3">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="L3">
+        <v>7.71</v>
+      </c>
+      <c r="M3">
+        <v>7.97</v>
+      </c>
+      <c r="N3">
+        <v>9.08</v>
+      </c>
+      <c r="O3">
+        <v>7.13</v>
+      </c>
+      <c r="P3">
+        <v>7.4</v>
+      </c>
+      <c r="Q3">
+        <v>7.84</v>
+      </c>
+      <c r="R3">
+        <v>7.6</v>
+      </c>
+      <c r="S3">
+        <v>5.7</v>
+      </c>
+      <c r="T3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="U3">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="V3">
+        <v>2.38</v>
+      </c>
+      <c r="W3">
+        <v>2.8</v>
+      </c>
+      <c r="X3">
+        <v>2.09</v>
+      </c>
+      <c r="Y3">
+        <v>12.33</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <v>15.11</v>
-      </c>
-      <c r="C4" s="2">
-        <v>23.24</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10.71</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12.94</v>
-      </c>
-      <c r="F4" s="2">
-        <v>13.33</v>
-      </c>
-      <c r="G4" s="2">
-        <v>13.01</v>
-      </c>
-      <c r="H4" s="2">
-        <v>15.51</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="B4">
+        <v>6.52</v>
+      </c>
+      <c r="C4">
+        <v>10.56</v>
+      </c>
+      <c r="D4">
+        <v>5.92</v>
+      </c>
+      <c r="E4">
+        <v>6.15</v>
+      </c>
+      <c r="F4">
+        <v>6.79</v>
+      </c>
+      <c r="G4">
+        <v>6.65</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="K4" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="L4" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="M4" s="2">
-        <v>7</v>
-      </c>
-      <c r="N4" s="2">
-        <v>7</v>
-      </c>
-      <c r="O4" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>7</v>
-      </c>
-      <c r="R4" s="2">
-        <v>7</v>
-      </c>
-      <c r="S4" s="2">
+      <c r="I4">
+        <v>10.19</v>
+      </c>
+      <c r="J4">
+        <v>9.76</v>
+      </c>
+      <c r="K4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="L4">
+        <v>8.66</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="T4" s="2">
-        <v>8</v>
-      </c>
-      <c r="U4" s="2">
-        <v>7</v>
-      </c>
-      <c r="V4" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="W4" s="2">
-        <v>10</v>
-      </c>
-      <c r="X4" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>10</v>
+      <c r="N4">
+        <v>7.8</v>
+      </c>
+      <c r="O4">
+        <v>5.82</v>
+      </c>
+      <c r="P4">
+        <v>6.56</v>
+      </c>
+      <c r="Q4">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="R4">
+        <v>7.63</v>
+      </c>
+      <c r="S4">
+        <v>8.42</v>
+      </c>
+      <c r="T4">
+        <v>4.66</v>
+      </c>
+      <c r="U4">
+        <v>4.32</v>
+      </c>
+      <c r="V4">
+        <v>2.81</v>
+      </c>
+      <c r="W4">
+        <v>2.81</v>
+      </c>
+      <c r="X4">
+        <v>3.33</v>
+      </c>
+      <c r="Y4">
+        <v>8.9700000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>3.67</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5.29</v>
-      </c>
-      <c r="D5" s="2">
-        <v>6.83</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10.88</v>
-      </c>
-      <c r="F5" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>9.8699999999999992</v>
-      </c>
-      <c r="H5" s="2">
-        <v>10.77</v>
-      </c>
-      <c r="I5" s="2">
-        <v>9.84</v>
-      </c>
-      <c r="J5" s="2">
-        <v>10.06</v>
-      </c>
-      <c r="K5" s="2">
-        <v>9.27</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8.57</v>
-      </c>
-      <c r="M5" s="2">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="N5" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="O5" s="2">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="P5" s="2">
-        <v>10.11</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>10.99</v>
-      </c>
-      <c r="R5" s="2">
-        <v>9.82</v>
-      </c>
-      <c r="S5" s="2">
-        <v>7.98</v>
-      </c>
-      <c r="T5" s="2">
-        <v>5.51</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0.63</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0.76</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1.84</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>7.95</v>
+      <c r="B5">
+        <v>5.88</v>
+      </c>
+      <c r="C5">
+        <v>8.98</v>
+      </c>
+      <c r="D5">
+        <v>7.64</v>
+      </c>
+      <c r="E5">
+        <v>7.72</v>
+      </c>
+      <c r="F5">
+        <v>7.64</v>
+      </c>
+      <c r="G5">
+        <v>7.72</v>
+      </c>
+      <c r="H5">
+        <v>8.23</v>
+      </c>
+      <c r="I5">
+        <v>7.19</v>
+      </c>
+      <c r="J5">
+        <v>6.72</v>
+      </c>
+      <c r="K5">
+        <v>6.56</v>
+      </c>
+      <c r="L5">
+        <v>5.75</v>
+      </c>
+      <c r="M5">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="N5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="O5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="P5">
+        <v>6.11</v>
+      </c>
+      <c r="Q5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="R5">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="S5">
+        <v>4.66</v>
+      </c>
+      <c r="T5">
+        <v>5.58</v>
+      </c>
+      <c r="U5">
+        <v>5.56</v>
+      </c>
+      <c r="V5">
+        <v>5.09</v>
+      </c>
+      <c r="W5">
+        <v>4.33</v>
+      </c>
+      <c r="X5">
+        <v>4.62</v>
+      </c>
+      <c r="Y5">
+        <v>6.95</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>9.83</v>
-      </c>
-      <c r="C6" s="2">
-        <v>11.06</v>
-      </c>
-      <c r="D6" s="2">
-        <v>8.64</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9.42</v>
-      </c>
-      <c r="F6" s="2">
-        <v>10.65</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10.53</v>
-      </c>
-      <c r="H6" s="2">
-        <v>15.26</v>
-      </c>
-      <c r="I6" s="2">
-        <v>13.61</v>
-      </c>
-      <c r="J6" s="2">
-        <v>9.01</v>
-      </c>
-      <c r="K6" s="2">
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="L6" s="2">
-        <v>10.01</v>
-      </c>
-      <c r="M6" s="2">
-        <v>9.74</v>
-      </c>
-      <c r="N6" s="2">
-        <v>7.51</v>
-      </c>
-      <c r="O6" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="P6" s="2">
-        <v>7.51</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>8.44</v>
-      </c>
-      <c r="R6" s="2">
-        <v>7.59</v>
-      </c>
-      <c r="S6" s="2">
-        <v>7.73</v>
-      </c>
-      <c r="T6" s="2">
-        <v>9.6300000000000008</v>
-      </c>
-      <c r="U6" s="2">
-        <v>6.01</v>
-      </c>
-      <c r="V6" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="W6" s="2">
-        <v>6.73</v>
-      </c>
-      <c r="X6" s="2">
-        <v>10.01</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>10.48</v>
-      </c>
+      <c r="B6">
+        <v>7.58</v>
+      </c>
+      <c r="C6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="D6">
+        <v>6.33</v>
+      </c>
+      <c r="E6">
+        <v>6.8</v>
+      </c>
+      <c r="F6">
+        <v>6.8</v>
+      </c>
+      <c r="G6">
+        <v>6.25</v>
+      </c>
+      <c r="H6">
+        <v>7.77</v>
+      </c>
+      <c r="I6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="J6">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="K6">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="L6">
+        <v>7.09</v>
+      </c>
+      <c r="M6">
+        <v>6.43</v>
+      </c>
+      <c r="N6">
+        <v>5.85</v>
+      </c>
+      <c r="O6">
+        <v>6.44</v>
+      </c>
+      <c r="P6">
+        <v>6.79</v>
+      </c>
+      <c r="Q6">
+        <v>8.14</v>
+      </c>
+      <c r="R6">
+        <v>8.51</v>
+      </c>
+      <c r="S6">
+        <v>9.17</v>
+      </c>
+      <c r="T6">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="U6">
+        <v>7.6</v>
+      </c>
+      <c r="V6">
+        <v>6.29</v>
+      </c>
+      <c r="W6">
+        <v>6.62</v>
+      </c>
+      <c r="X6">
+        <v>6.53</v>
+      </c>
+      <c r="Y6">
+        <v>7.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1792,16 +2063,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6341CBF-75B0-4881-BC67-CF5B8BBF5F6C}">
-  <dimension ref="A1:DQ6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A463E26D-6A8A-4B66-9A29-8928FA1FD067}">
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y6" activeCellId="1" sqref="Y2:Y4 Y6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1878,465 +2149,392 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <f>AVERAGE(B3:B6)</f>
-        <v>65.322500000000005</v>
+      <c r="B2" s="2">
+        <v>37</v>
       </c>
       <c r="C2" s="2">
-        <v>55.69</v>
+        <v>35.69</v>
       </c>
       <c r="D2" s="2">
-        <v>55.69</v>
+        <v>35.69</v>
       </c>
       <c r="E2" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="F2" s="4">
-        <f>AVERAGE(F3:F6)</f>
-        <v>49.042499999999997</v>
+        <v>35.69</v>
+      </c>
+      <c r="F2" s="2">
+        <v>35.69</v>
       </c>
       <c r="G2" s="2">
-        <v>48.4</v>
+        <v>35.69</v>
       </c>
       <c r="H2" s="2">
-        <v>55.69</v>
+        <v>47.22</v>
       </c>
       <c r="I2" s="2">
-        <v>99</v>
+        <v>47.22</v>
       </c>
       <c r="J2" s="2">
-        <v>99</v>
+        <v>47.22</v>
       </c>
       <c r="K2" s="2">
-        <v>99</v>
+        <v>47.22</v>
       </c>
       <c r="L2" s="2">
-        <v>48.4</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
-        <v>99</v>
+        <v>38.4</v>
       </c>
       <c r="N2" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="O2" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="P2" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="Q2" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="R2" s="2">
-        <v>99</v>
+        <v>47.22</v>
       </c>
       <c r="S2" s="2">
-        <v>70.03</v>
+        <v>47.22</v>
       </c>
       <c r="T2" s="2">
-        <v>99</v>
+        <v>47.22</v>
       </c>
       <c r="U2" s="2">
-        <v>99</v>
+        <v>47.22</v>
       </c>
       <c r="V2" s="2">
-        <v>51</v>
+        <v>47.12</v>
       </c>
       <c r="W2" s="2">
-        <v>75.75</v>
-      </c>
-      <c r="X2" s="4">
-        <f>AVERAGE(X3:X6)</f>
-        <v>61.945</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>51</v>
-      </c>
-      <c r="CT2">
-        <v>65.69</v>
-      </c>
-      <c r="CU2">
-        <v>65.69</v>
-      </c>
-      <c r="CV2">
-        <v>41.69</v>
-      </c>
-      <c r="CW2">
-        <v>41.69</v>
-      </c>
-      <c r="CX2">
-        <v>41.69</v>
-      </c>
-      <c r="CY2">
-        <v>41.69</v>
-      </c>
-      <c r="CZ2">
-        <v>41.69</v>
-      </c>
-      <c r="DA2">
-        <v>65.69</v>
-      </c>
-      <c r="DB2">
-        <v>65.69</v>
-      </c>
-      <c r="DC2">
-        <v>57.69</v>
-      </c>
-      <c r="DD2">
-        <v>57.69</v>
-      </c>
-      <c r="DE2">
-        <v>57.69</v>
-      </c>
-      <c r="DF2">
-        <v>57.69</v>
-      </c>
-      <c r="DG2">
-        <v>65.69</v>
-      </c>
-      <c r="DH2">
-        <v>65.69</v>
-      </c>
-      <c r="DI2">
-        <v>65.69</v>
-      </c>
-      <c r="DJ2">
-        <v>65.69</v>
-      </c>
-      <c r="DK2">
-        <v>65.69</v>
-      </c>
-      <c r="DL2">
-        <v>65.69</v>
-      </c>
-      <c r="DM2">
-        <v>51.4</v>
-      </c>
-      <c r="DN2">
-        <v>65.69</v>
-      </c>
-      <c r="DO2">
-        <v>65.69</v>
-      </c>
-      <c r="DP2">
-        <v>65.69</v>
-      </c>
-      <c r="DQ2">
-        <v>65.69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
+        <v>47.22</v>
+      </c>
+      <c r="X2" s="2">
+        <v>47.22</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>AVERAGE(Y3:Y6)</f>
+        <v>47.087499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="C3" s="2">
-        <v>46.48</v>
+        <v>47.22</v>
       </c>
       <c r="D3" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="E3" s="2">
-        <v>54.54</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="G3" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="H3" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="I3" s="2">
-        <v>70.03</v>
+        <v>47.22</v>
       </c>
       <c r="J3" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="K3" s="2">
-        <v>55</v>
+        <v>47.22</v>
       </c>
       <c r="L3" s="2">
-        <v>55.68</v>
+        <v>47.22</v>
       </c>
       <c r="M3" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="N3" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="O3" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="P3" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="Q3" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="R3" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="S3" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="T3" s="2">
-        <v>98</v>
+        <v>47.22</v>
       </c>
       <c r="U3" s="2">
-        <v>97</v>
+        <v>47.22</v>
       </c>
       <c r="V3" s="2">
-        <v>59</v>
+        <v>47.22</v>
       </c>
       <c r="W3" s="2">
-        <v>66</v>
+        <v>47.22</v>
       </c>
       <c r="X3" s="2">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>65.2</v>
+        <v>36.4</v>
       </c>
       <c r="C4" s="2">
-        <v>65.2</v>
+        <v>36.4</v>
       </c>
       <c r="D4" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="E4" s="2">
-        <v>41.69</v>
+        <v>35.69</v>
       </c>
       <c r="F4" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="G4" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="H4" s="2">
-        <v>54.54</v>
+        <v>35.69</v>
       </c>
       <c r="I4" s="2">
-        <v>54.54</v>
+        <v>47.22</v>
       </c>
       <c r="J4" s="2">
-        <v>54.54</v>
+        <v>36.4</v>
       </c>
       <c r="K4" s="2">
-        <v>51</v>
+        <v>36.4</v>
       </c>
       <c r="L4" s="2">
-        <v>51</v>
+        <v>47.22</v>
       </c>
       <c r="M4" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="N4" s="2">
-        <v>65.2</v>
+        <v>42</v>
       </c>
       <c r="O4" s="2">
-        <v>65.2</v>
+        <v>38</v>
       </c>
       <c r="P4" s="2">
-        <v>65.2</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="R4" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="S4" s="2">
-        <v>46</v>
+        <v>47.22</v>
       </c>
       <c r="T4" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="U4" s="2">
-        <v>98</v>
+        <v>47.22</v>
       </c>
       <c r="V4" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="W4" s="2">
-        <v>66</v>
+        <v>47.22</v>
       </c>
       <c r="X4" s="2">
-        <v>65.69</v>
+        <v>47.22</v>
       </c>
       <c r="Y4" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="C5" s="2">
-        <v>65.2</v>
+        <v>37.4</v>
       </c>
       <c r="D5" s="2">
-        <v>65.2</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="E5" s="2">
-        <v>65.2</v>
+        <v>37.4</v>
       </c>
       <c r="F5" s="2">
-        <v>45.4</v>
+        <v>35.69</v>
       </c>
       <c r="G5" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
       </c>
       <c r="H5" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
       </c>
       <c r="I5" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
       </c>
       <c r="J5" s="2">
-        <v>65.2</v>
+        <v>37.4</v>
       </c>
       <c r="K5" s="2">
-        <v>65.2</v>
+        <v>38</v>
       </c>
       <c r="L5" s="2">
-        <v>65.2</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="N5" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="O5" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="P5" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="Q5" s="2">
-        <v>65.2</v>
+        <v>47.22</v>
       </c>
       <c r="R5" s="2">
-        <v>65.69</v>
+        <v>47.22</v>
       </c>
       <c r="S5" s="2">
-        <v>65.69</v>
+        <v>47.22</v>
       </c>
       <c r="T5" s="2">
-        <v>65.69</v>
+        <v>47.22</v>
       </c>
       <c r="U5" s="2">
-        <v>65.69</v>
+        <v>47.22</v>
       </c>
       <c r="V5" s="2">
-        <v>45.4</v>
+        <v>47.22</v>
       </c>
       <c r="W5" s="2">
-        <v>45.4</v>
+        <v>95</v>
       </c>
       <c r="X5" s="2">
-        <v>45.4</v>
-      </c>
-      <c r="Y5" s="4">
-        <f>AVERAGE(Y2:Y4,Y6)</f>
-        <v>64.922499999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
+        <v>47.22</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>47.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>65.69</v>
+        <v>46.66</v>
       </c>
       <c r="C6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="D6" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
       </c>
       <c r="E6" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
       </c>
       <c r="F6" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
       </c>
       <c r="G6" s="2">
-        <v>41.69</v>
-      </c>
-      <c r="H6" s="2">
-        <v>41.69</v>
+        <v>37.4</v>
+      </c>
+      <c r="H6" s="4">
+        <f>AVERAGE(H2:H5)</f>
+        <v>39</v>
       </c>
       <c r="I6" s="2">
-        <v>65.69</v>
+        <v>64.64</v>
       </c>
       <c r="J6" s="2">
-        <v>65.69</v>
+        <v>37.4</v>
       </c>
       <c r="K6" s="2">
-        <v>57.69</v>
-      </c>
-      <c r="L6" s="2">
-        <v>57.69</v>
+        <v>37.4</v>
+      </c>
+      <c r="L6" s="4">
+        <f>AVERAGE(L2:L5)</f>
+        <v>42.11</v>
       </c>
       <c r="M6" s="2">
-        <v>57.69</v>
+        <v>37.4</v>
       </c>
       <c r="N6" s="2">
-        <v>57.69</v>
+        <v>46.69</v>
       </c>
       <c r="O6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="P6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="Q6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="R6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="S6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="T6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="U6" s="2">
-        <v>51.4</v>
+        <v>46.69</v>
       </c>
       <c r="V6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
       <c r="W6" s="2">
-        <v>65.69</v>
+        <v>46.58</v>
       </c>
       <c r="X6" s="2">
-        <v>65.69</v>
+        <v>46.56</v>
       </c>
       <c r="Y6" s="2">
-        <v>65.69</v>
+        <v>46.69</v>
       </c>
     </row>
   </sheetData>
@@ -2346,11 +2544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D159CD96-79DD-4FF6-91B4-4DFEA1FC4F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2593E2F5-41B7-446A-8A1D-5F81A289B505}">
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,173 +2635,163 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>32.01</v>
-      </c>
-      <c r="C2" s="4">
-        <f>AVERAGE(C3,C5:C6)</f>
-        <v>35.646666666666668</v>
-      </c>
-      <c r="D2" s="2">
-        <v>16.190000000000001</v>
+        <v>15.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="D2" s="4">
+        <f>AVERAGE(D3:D6)</f>
+        <v>33.605000000000004</v>
       </c>
       <c r="E2" s="4">
-        <f>AVERAGE(E3,E5:E6)</f>
-        <v>32.356666666666662</v>
+        <f>AVERAGE(E3:E5)</f>
+        <v>35.513333333333328</v>
       </c>
       <c r="F2" s="2">
-        <v>16.190000000000001</v>
-      </c>
-      <c r="G2" s="2">
-        <v>16.190000000000001</v>
+        <v>39.4</v>
+      </c>
+      <c r="G2" s="4">
+        <f>AVERAGE(G4:G5)</f>
+        <v>30.71</v>
       </c>
       <c r="H2" s="4">
-        <f>AVERAGE(H3:H4,H6)</f>
-        <v>32.356666666666662</v>
+        <f>AVERAGE(H5:H6)</f>
+        <v>24.515000000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>30.75</v>
-      </c>
-      <c r="J2" s="4">
-        <f>AVERAGE(J3:J4,J6)</f>
-        <v>39.46</v>
+        <v>27.98</v>
+      </c>
+      <c r="J2" s="2">
+        <v>27.98</v>
       </c>
       <c r="K2" s="4">
-        <f>AVERAGE(K4,K6)</f>
-        <v>35.375</v>
-      </c>
-      <c r="L2" s="4">
-        <f>AVERAGE(L4,L6)</f>
-        <v>42.695</v>
+        <f>AVERAGE(K3:K6)</f>
+        <v>23.7575</v>
+      </c>
+      <c r="L2" s="2">
+        <v>26</v>
       </c>
       <c r="M2" s="4">
-        <f>AVERAGE(M3:M4,M6)</f>
-        <v>36.936666666666667</v>
-      </c>
-      <c r="N2" s="4">
-        <f>AVERAGE(N3:N4,N6)</f>
-        <v>34.646666666666668</v>
+        <f>AVERAGE(M3:M6)</f>
+        <v>41.627499999999998</v>
+      </c>
+      <c r="N2" s="2">
+        <v>52.5</v>
       </c>
       <c r="O2" s="2">
-        <v>30.75</v>
-      </c>
-      <c r="P2" s="4">
-        <f>AVERAGE(P4:P5)</f>
-        <v>33.19</v>
+        <v>50.4</v>
+      </c>
+      <c r="P2" s="2">
+        <v>50.4</v>
       </c>
       <c r="Q2" s="2">
-        <v>30.75</v>
-      </c>
-      <c r="R2" s="4">
-        <f>AVERAGE(R4:R5)</f>
-        <v>35.375</v>
-      </c>
-      <c r="S2" s="4">
-        <f>AVERAGE(S3)</f>
-        <v>40.06</v>
-      </c>
-      <c r="T2" s="4">
-        <f>AVERAGE(T3:T4)</f>
-        <v>40.06</v>
+        <v>50.4</v>
+      </c>
+      <c r="R2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>27.98</v>
       </c>
       <c r="U2" s="2">
-        <v>50.5</v>
-      </c>
-      <c r="V2" s="4">
-        <f>AVERAGE(V3:V5)</f>
-        <v>40.06</v>
+        <v>50.4</v>
+      </c>
+      <c r="V2" s="2">
+        <v>50.4</v>
       </c>
       <c r="W2" s="2">
-        <v>44.44</v>
+        <v>27.98</v>
       </c>
       <c r="X2" s="2">
-        <v>42.42</v>
-      </c>
-      <c r="Y2" s="4">
-        <f>AVERAGE(Y3,Y5:Y6)</f>
-        <v>31.52333333333333</v>
+        <v>22.02</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>50.4</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <f>AVERAGE(B2,B6,B4)</f>
-        <v>31.963333333333335</v>
+      <c r="B3" s="2">
+        <v>50.4</v>
       </c>
       <c r="C3" s="2">
-        <v>36.19</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2">
-        <v>33.19</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30.03</v>
-      </c>
-      <c r="G3" s="2">
-        <v>30.03</v>
-      </c>
-      <c r="H3" s="2">
-        <v>33.19</v>
+        <v>27.74</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(F2,F4,F5)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G3" s="4">
+        <f>AVERAGE(G4:G5)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H3" s="4">
+        <f>AVERAGE(H5:H6)</f>
+        <v>24.515000000000001</v>
       </c>
       <c r="I3" s="2">
-        <v>44.9</v>
-      </c>
-      <c r="J3" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="J3" s="4">
+        <f>AVERAGE(J2,J4:J6)</f>
+        <v>24.7575</v>
+      </c>
+      <c r="K3" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="L3" s="2">
         <v>52.5</v>
       </c>
-      <c r="K3" s="4">
-        <f>AVERAGE(K4,K6)</f>
-        <v>35.375</v>
-      </c>
-      <c r="L3" s="4">
-        <f>AVERAGE(L4,L6)</f>
-        <v>42.695</v>
-      </c>
       <c r="M3" s="2">
-        <v>40.06</v>
+        <v>52.5</v>
       </c>
       <c r="N3" s="2">
-        <v>40.06</v>
+        <v>52.5</v>
       </c>
       <c r="O3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="P3" s="4">
-        <f>AVERAGE(P4:P5)</f>
-        <v>33.19</v>
+        <v>50.4</v>
+      </c>
+      <c r="P3" s="2">
+        <v>50.4</v>
       </c>
       <c r="Q3" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="R3" s="4">
-        <f>AVERAGE(R4:R5)</f>
-        <v>35.375</v>
+        <v>50.4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>50.4</v>
       </c>
       <c r="S3" s="2">
-        <v>40.06</v>
+        <v>29.98</v>
       </c>
       <c r="T3" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="U3" s="4">
-        <f>AVERAGE(U2,U4,U6)</f>
-        <v>43.54</v>
+        <v>27.98</v>
+      </c>
+      <c r="U3" s="2">
+        <v>27.98</v>
       </c>
       <c r="V3" s="2">
-        <v>40.06</v>
+        <v>50.4</v>
       </c>
       <c r="W3" s="2">
-        <v>40.06</v>
+        <v>28</v>
       </c>
       <c r="X3" s="2">
-        <v>40.06</v>
+        <v>50.4</v>
       </c>
       <c r="Y3" s="2">
-        <v>33.19</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2611,174 +2799,156 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="C4" s="4">
-        <f>AVERAGE(C3,C5:C6)</f>
-        <v>35.646666666666668</v>
+        <v>27.98</v>
+      </c>
+      <c r="C4" s="2">
+        <v>22.02</v>
       </c>
       <c r="D4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="E4" s="4">
-        <f>AVERAGE(E3,E5:E6)</f>
-        <v>32.356666666666662</v>
+        <v>22.02</v>
+      </c>
+      <c r="E4" s="2">
+        <v>39.4</v>
       </c>
       <c r="F4" s="2">
-        <v>31.67</v>
-      </c>
-      <c r="G4" s="4">
-        <f>AVERAGE(G2:G3,G6)</f>
-        <v>25.636666666666667</v>
-      </c>
-      <c r="H4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="I4" s="2">
-        <v>35.19</v>
+        <v>22.02</v>
+      </c>
+      <c r="G4" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="H4" s="4">
+        <f>AVERAGE(H5:H6)</f>
+        <v>24.515000000000001</v>
+      </c>
+      <c r="I4" s="4">
+        <f>AVERAGE(I2:I3,I5:I6)</f>
+        <v>23.267499999999998</v>
       </c>
       <c r="J4" s="2">
-        <v>35.19</v>
+        <v>27.98</v>
       </c>
       <c r="K4" s="2">
-        <v>40.06</v>
+        <v>20.36</v>
       </c>
       <c r="L4" s="2">
-        <v>54.7</v>
+        <v>52.5</v>
       </c>
       <c r="M4" s="2">
-        <v>40.06</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2">
-        <v>33.19</v>
+        <v>29.01</v>
       </c>
       <c r="O4" s="2">
-        <v>33.19</v>
+        <v>29.02</v>
       </c>
       <c r="P4" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="Q4" s="4">
-        <f>AVERAGE(Q5,Q2:Q3)</f>
-        <v>31.543333333333333</v>
-      </c>
-      <c r="R4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="S4" s="4">
-        <f>AVERAGE(S3)</f>
-        <v>40.06</v>
+        <v>29.02</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="R4" s="4">
+        <f>AVERAGE(R2:R3,R5:R6)</f>
+        <v>50.4</v>
+      </c>
+      <c r="S4" s="2">
+        <v>50.4</v>
       </c>
       <c r="T4" s="2">
-        <v>40.06</v>
+        <v>50.4</v>
       </c>
       <c r="U4" s="2">
-        <v>40.06</v>
+        <v>50.4</v>
       </c>
       <c r="V4" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="W4" s="4">
-        <f>AVERAGE(W2:W3,W6)</f>
-        <v>41.52</v>
+        <v>30</v>
+      </c>
+      <c r="W4" s="2">
+        <v>50.4</v>
       </c>
       <c r="X4" s="2">
-        <v>40.69</v>
-      </c>
-      <c r="Y4" s="4">
-        <f>AVERAGE(Y3,Y5:Y6)</f>
-        <v>31.52333333333333</v>
+        <v>27.98</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>22.02</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
+      <c r="B5" s="2">
+        <v>50.4</v>
       </c>
       <c r="C5" s="2">
-        <v>40.06</v>
+        <v>43.2</v>
       </c>
       <c r="D5" s="2">
-        <v>40.06</v>
+        <v>43.2</v>
       </c>
       <c r="E5" s="2">
-        <v>33.19</v>
-      </c>
-      <c r="F5" s="4">
-        <f>AVERAGE(F6,F2:F4)</f>
-        <v>27.145</v>
-      </c>
-      <c r="G5" s="4">
-        <f>AVERAGE(G2:G3,G6)</f>
-        <v>25.636666666666667</v>
-      </c>
-      <c r="H5" s="4">
-        <f>AVERAGE(H6,H3:H4)</f>
-        <v>32.356666666666662</v>
-      </c>
-      <c r="I5" s="4">
-        <f>AVERAGE(I6,I2:I4)</f>
-        <v>35.3825</v>
-      </c>
-      <c r="J5" s="4">
-        <f>AVERAGE(J6,J3:J4)</f>
-        <v>39.46</v>
-      </c>
-      <c r="K5" s="4">
-        <f>AVERAGE(K6,K4)</f>
-        <v>35.375</v>
-      </c>
-      <c r="L5" s="4">
-        <f>AVERAGE(L6,L4)</f>
-        <v>42.695</v>
-      </c>
-      <c r="M5" s="4">
-        <f>AVERAGE(M6,M3:M4)</f>
-        <v>36.936666666666667</v>
-      </c>
-      <c r="N5" s="4">
-        <f>AVERAGE(N6,N3:N4)</f>
-        <v>34.646666666666668</v>
+        <v>39.4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="I5" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="J5" s="2">
+        <v>22.02</v>
+      </c>
+      <c r="K5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="L5" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>27.98</v>
+      </c>
+      <c r="N5" s="2">
+        <v>52.5</v>
       </c>
       <c r="O5" s="2">
-        <v>33.19</v>
+        <v>50.4</v>
       </c>
       <c r="P5" s="2">
-        <v>33.19</v>
+        <v>50.4</v>
       </c>
       <c r="Q5" s="2">
-        <v>30.69</v>
+        <v>27.98</v>
       </c>
       <c r="R5" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="S5" s="4">
-        <f>AVERAGE(S3)</f>
-        <v>40.06</v>
-      </c>
-      <c r="T5" s="4">
-        <f>AVERAGE(T3:T4)</f>
-        <v>40.06</v>
-      </c>
-      <c r="U5" s="4">
-        <f>AVERAGE(U2,U4,U6)</f>
-        <v>43.54</v>
+        <v>50.4</v>
+      </c>
+      <c r="S5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U5" s="2">
+        <v>50.4</v>
       </c>
       <c r="V5" s="2">
-        <v>40.06</v>
-      </c>
-      <c r="W5" s="4">
-        <f>AVERAGE(W2:W3,W6)</f>
-        <v>41.52</v>
-      </c>
-      <c r="X5" s="4">
-        <f>AVERAGE(X2:X4,X6)</f>
-        <v>38.465000000000003</v>
+        <v>50.4</v>
+      </c>
+      <c r="W5" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X5" s="2">
+        <v>50.4</v>
       </c>
       <c r="Y5" s="2">
-        <v>30.69</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2786,82 +2956,2052 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>30.69</v>
+        <v>50.4</v>
       </c>
       <c r="C6" s="2">
-        <v>30.69</v>
+        <v>18.71</v>
       </c>
       <c r="D6" s="2">
-        <v>30.69</v>
+        <v>43.2</v>
+      </c>
+      <c r="E6" s="4">
+        <f>AVERAGE(E3:E5)</f>
+        <v>35.513333333333328</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(F2,F4,F5)</f>
+        <v>33.606666666666662</v>
+      </c>
+      <c r="G6" s="4">
+        <f>AVERAGE(G4:G5)</f>
+        <v>30.71</v>
+      </c>
+      <c r="H6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="I6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="J6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="K6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="L6" s="2">
+        <v>18.71</v>
+      </c>
+      <c r="M6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="N6" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="O6" s="4">
+        <f>AVERAGE(O2:O5)</f>
+        <v>45.055</v>
+      </c>
+      <c r="P6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>AVERAGE(Q2:Q5)</f>
+        <v>44.794999999999995</v>
+      </c>
+      <c r="R6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="S6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="T6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="U6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="V6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50.4</v>
+      </c>
+      <c r="X6" s="2">
+        <v>26.03</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>50.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA05D27-2923-4356-8892-D5CC7369F4B4}">
+  <dimension ref="A1:Y7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Y6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>50.67</v>
+      </c>
+      <c r="C2" s="2">
+        <v>49.19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>46.22</v>
+      </c>
+      <c r="E2" s="2">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2">
+        <v>39.01</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2">
+        <v>47.75</v>
+      </c>
+      <c r="I2" s="2">
+        <v>50.69</v>
+      </c>
+      <c r="J2" s="2">
+        <v>52.93</v>
+      </c>
+      <c r="K2" s="2">
+        <v>52.6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>50.67</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49.73</v>
+      </c>
+      <c r="N2" s="2">
+        <v>47.44</v>
+      </c>
+      <c r="O2" s="2">
+        <v>47.01</v>
+      </c>
+      <c r="P2" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>42.97</v>
+      </c>
+      <c r="R2" s="2">
+        <v>43.68</v>
+      </c>
+      <c r="S2" s="2">
+        <v>46.81</v>
+      </c>
+      <c r="T2" s="2">
+        <v>49.51</v>
+      </c>
+      <c r="U2" s="2">
+        <v>50</v>
+      </c>
+      <c r="V2" s="2">
+        <v>50</v>
+      </c>
+      <c r="W2" s="2">
+        <v>47.11</v>
+      </c>
+      <c r="X2" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>31.86</v>
+      </c>
+      <c r="C3" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="D3" s="2">
+        <v>29.57</v>
+      </c>
+      <c r="E3" s="2">
+        <v>29.53</v>
+      </c>
+      <c r="F3" s="2">
+        <v>29.77</v>
+      </c>
+      <c r="G3" s="2">
+        <v>30.47</v>
+      </c>
+      <c r="H3" s="2">
+        <v>31.37</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40.01</v>
+      </c>
+      <c r="J3" s="2">
+        <v>45.19</v>
+      </c>
+      <c r="K3" s="2">
+        <v>46.47</v>
+      </c>
+      <c r="L3" s="2">
+        <v>46.29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44.49</v>
+      </c>
+      <c r="N3" s="2">
+        <v>43.01</v>
+      </c>
+      <c r="O3" s="2">
+        <v>41.25</v>
+      </c>
+      <c r="P3" s="2">
+        <v>37.97</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>36.01</v>
+      </c>
+      <c r="R3" s="2">
+        <v>38.01</v>
+      </c>
+      <c r="S3" s="2">
+        <v>41.51</v>
+      </c>
+      <c r="T3" s="2">
+        <v>45.25</v>
+      </c>
+      <c r="U3" s="2">
+        <v>46.55</v>
+      </c>
+      <c r="V3" s="2">
+        <v>46.75</v>
+      </c>
+      <c r="W3" s="2">
+        <v>45.09</v>
+      </c>
+      <c r="X3" s="2">
+        <v>40.15</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>31.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>30.67</v>
+      </c>
+      <c r="C4" s="2">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20.010000000000002</v>
+      </c>
+      <c r="E4" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>30.53</v>
+      </c>
+      <c r="I4" s="2">
+        <v>38.53</v>
+      </c>
+      <c r="J4" s="2">
+        <v>42.99</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43.52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="M4" s="2">
+        <v>44.02</v>
+      </c>
+      <c r="N4" s="2">
+        <v>43.85</v>
+      </c>
+      <c r="O4" s="2">
+        <v>43.01</v>
+      </c>
+      <c r="P4" s="2">
+        <v>40.21</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>41.25</v>
+      </c>
+      <c r="R4" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="S4" s="2">
+        <v>45</v>
+      </c>
+      <c r="T4" s="2">
+        <v>48.43</v>
+      </c>
+      <c r="U4" s="2">
+        <v>52.8</v>
+      </c>
+      <c r="V4" s="2">
+        <v>52.49</v>
+      </c>
+      <c r="W4" s="2">
+        <v>48.1</v>
+      </c>
+      <c r="X4" s="2">
+        <v>43.75</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>33.270000000000003</v>
+      </c>
+      <c r="C5" s="2">
+        <v>31.18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F5" s="2">
+        <v>29.72</v>
+      </c>
+      <c r="G5" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="I5" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>42.89</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>43.51</v>
+      </c>
+      <c r="M5" s="2">
+        <v>42.1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>40.36</v>
+      </c>
+      <c r="O5" s="2">
+        <v>40.08</v>
+      </c>
+      <c r="P5" s="2">
+        <v>36.81</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>32.49</v>
+      </c>
+      <c r="R5" s="2">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="S5" s="2">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="T5" s="2">
+        <v>43.15</v>
+      </c>
+      <c r="U5" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>43.98</v>
+      </c>
+      <c r="W5" s="2">
+        <v>43.15</v>
+      </c>
+      <c r="X5" s="2">
+        <v>40.01</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>32.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>30.87</v>
+      </c>
+      <c r="C6" s="2">
+        <v>29.48</v>
+      </c>
+      <c r="D6" s="2">
+        <v>26.86</v>
       </c>
       <c r="E6" s="2">
-        <v>30.69</v>
+        <v>25.71</v>
       </c>
       <c r="F6" s="2">
-        <v>30.69</v>
+        <v>26.01</v>
       </c>
       <c r="G6" s="2">
-        <v>30.69</v>
+        <v>27.97</v>
       </c>
       <c r="H6" s="2">
-        <v>30.69</v>
+        <v>31.09</v>
       </c>
       <c r="I6" s="2">
-        <v>30.69</v>
+        <v>40.25</v>
       </c>
       <c r="J6" s="2">
-        <v>30.69</v>
+        <v>43.8</v>
       </c>
       <c r="K6" s="2">
-        <v>30.69</v>
+        <v>43.19</v>
       </c>
       <c r="L6" s="2">
-        <v>30.69</v>
+        <v>43.68</v>
       </c>
       <c r="M6" s="2">
-        <v>30.69</v>
+        <v>42.72</v>
       </c>
       <c r="N6" s="2">
-        <v>30.69</v>
+        <v>41.37</v>
       </c>
       <c r="O6" s="2">
-        <v>30.69</v>
-      </c>
-      <c r="P6" s="4">
-        <f>AVERAGE(P4:P5)</f>
-        <v>33.19</v>
-      </c>
-      <c r="Q6" s="4">
-        <f>AVERAGE(Q5,Q2:Q3)</f>
-        <v>31.543333333333333</v>
-      </c>
-      <c r="R6" s="4">
-        <f>AVERAGE(R4:R5)</f>
-        <v>35.375</v>
-      </c>
-      <c r="S6" s="4">
-        <f>AVERAGE(S3)</f>
-        <v>40.06</v>
-      </c>
-      <c r="T6" s="4">
-        <f>AVERAGE(T3:T4)</f>
-        <v>40.06</v>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="P6" s="2">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>39.11</v>
+      </c>
+      <c r="R6" s="2">
+        <v>41.37</v>
+      </c>
+      <c r="S6" s="2">
+        <v>43.98</v>
+      </c>
+      <c r="T6" s="2">
+        <v>47.11</v>
       </c>
       <c r="U6" s="2">
-        <v>40.06</v>
+        <v>49.73</v>
+      </c>
+      <c r="V6" s="2">
+        <v>51.75</v>
+      </c>
+      <c r="W6" s="2">
+        <v>50.3</v>
+      </c>
+      <c r="X6" s="2">
+        <v>46.16</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>44.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F2832E-D631-4518-B3FA-D6C6FF68485B}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="E2" s="2">
+        <v>3.48</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="I2" s="2">
+        <v>4.59</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2.68</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3.19</v>
+      </c>
+      <c r="O2" s="2">
+        <v>3.68</v>
+      </c>
+      <c r="P2" s="2">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="R2" s="2">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="U2" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>24.41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>18.39</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16.53</v>
+      </c>
+      <c r="E3" s="2">
+        <v>17.43</v>
+      </c>
+      <c r="F3" s="2">
+        <v>16.59</v>
+      </c>
+      <c r="G3" s="2">
+        <v>24.63</v>
+      </c>
+      <c r="H3" s="2">
+        <v>25.36</v>
+      </c>
+      <c r="I3" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8.52</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="L3" s="2">
+        <v>6.87</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="N3" s="2">
+        <v>5.04</v>
+      </c>
+      <c r="O3" s="2">
+        <v>7.34</v>
+      </c>
+      <c r="P3" s="2">
+        <v>10.42</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>11.75</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10.38</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="T3" s="2">
+        <v>6.55</v>
+      </c>
+      <c r="U3" s="2">
+        <v>5.95</v>
+      </c>
+      <c r="V3" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="X3" s="2">
+        <v>6.94</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="C4" s="2">
+        <v>18.79</v>
+      </c>
+      <c r="D4" s="2">
+        <v>22.38</v>
+      </c>
+      <c r="E4" s="2">
+        <v>24.35</v>
+      </c>
+      <c r="F4" s="2">
+        <v>25.01</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20.48</v>
+      </c>
+      <c r="H4" s="2">
+        <v>22.13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12.36</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5.59</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4.01</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="M4" s="2">
+        <v>5.14</v>
+      </c>
+      <c r="N4" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="O4" s="2">
+        <v>4.29</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4.49</v>
+      </c>
+      <c r="R4" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="T4" s="2">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="U4" s="2">
+        <v>5.39</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="W4" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="X4" s="2">
+        <v>5.99</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>23.32</v>
+      </c>
+      <c r="C5" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>15.12</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15.83</v>
+      </c>
+      <c r="F5" s="2">
+        <v>15.97</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16.63</v>
+      </c>
+      <c r="H5" s="2">
+        <v>13.89</v>
+      </c>
+      <c r="I5" s="2">
+        <v>5.68</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.59</v>
+      </c>
+      <c r="N5" s="2">
+        <v>5.19</v>
+      </c>
+      <c r="O5" s="2">
+        <v>4.72</v>
+      </c>
+      <c r="P5" s="2">
+        <v>5.29</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4.82</v>
+      </c>
+      <c r="S5" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="T5" s="2">
+        <v>5.49</v>
+      </c>
+      <c r="U5" s="2">
+        <v>5.09</v>
+      </c>
+      <c r="V5" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="W5" s="2">
+        <v>3.49</v>
+      </c>
+      <c r="X5" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21.75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20.29</v>
+      </c>
+      <c r="E6" s="2">
+        <v>21.33</v>
+      </c>
+      <c r="F6" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>21.87</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7.87</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1.99</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2.52</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.44</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1.79</v>
+      </c>
+      <c r="X6" s="2">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6341CBF-75B0-4881-BC67-CF5B8BBF5F6C}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="G2" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="H2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="I2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>47</v>
+      </c>
+      <c r="L2" s="2">
+        <v>47</v>
+      </c>
+      <c r="M2" s="2">
+        <v>47</v>
+      </c>
+      <c r="N2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="O2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="P2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="R2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="S2" s="2">
+        <v>62.57</v>
+      </c>
+      <c r="T2" s="2">
+        <v>61.55</v>
+      </c>
+      <c r="U2" s="2">
+        <v>61.57</v>
+      </c>
+      <c r="V2" s="2">
+        <v>61.57</v>
+      </c>
+      <c r="W2" s="2">
+        <v>61.57</v>
+      </c>
+      <c r="X2" s="2">
+        <v>58.55</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>46.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="F3" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="G3" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="H3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="I3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="J3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="K3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="L3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="M3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="N3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="O3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="P3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="R3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="S3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="T3" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="U3" s="2">
+        <v>51.64</v>
+      </c>
+      <c r="V3" s="2">
+        <v>51.64</v>
+      </c>
+      <c r="W3" s="2">
+        <v>51.64</v>
+      </c>
+      <c r="X3" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="H4" s="2">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2">
+        <v>51.65</v>
+      </c>
+      <c r="J4" s="2">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2">
+        <v>58.58</v>
+      </c>
+      <c r="M4" s="2">
+        <v>58.58</v>
+      </c>
+      <c r="N4" s="2">
+        <v>58.55</v>
+      </c>
+      <c r="O4" s="2">
+        <v>58.55</v>
+      </c>
+      <c r="P4" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>46</v>
+      </c>
+      <c r="R4" s="2">
+        <v>46</v>
+      </c>
+      <c r="S4" s="4">
+        <f>AVERAGE(S2,S3,S6,S5)</f>
+        <v>51.555</v>
+      </c>
+      <c r="T4" s="4">
+        <f>AVERAGE(T2,T3,T6,T5)</f>
+        <v>51.3</v>
+      </c>
+      <c r="U4" s="4">
+        <f>AVERAGE(U2,U3,U5)</f>
+        <v>53.07</v>
+      </c>
+      <c r="V4" s="4">
+        <f>AVERAGE(V2,V3,V5)</f>
+        <v>53.07</v>
+      </c>
+      <c r="W4" s="4">
+        <f>AVERAGE(W2,W3,W5)</f>
+        <v>53.07</v>
+      </c>
+      <c r="X4" s="4">
+        <f>AVERAGE(X2,X3,X5)</f>
+        <v>54.376666666666665</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <f>AVERAGE(B2:B4)</f>
+        <v>50.19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44</v>
+      </c>
+      <c r="G5" s="4">
+        <f>AVERAGE(G2:G4,G6)</f>
+        <v>43.97</v>
+      </c>
+      <c r="H5" s="2">
+        <v>43.4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2">
+        <v>44</v>
+      </c>
+      <c r="K5" s="2">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2">
+        <v>44</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2">
+        <v>46</v>
+      </c>
+      <c r="O5" s="4">
+        <f>AVERAGE(O2:O4)</f>
+        <v>57.589999999999996</v>
+      </c>
+      <c r="P5" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="R5" s="2">
+        <v>46</v>
+      </c>
+      <c r="S5" s="2">
+        <v>46</v>
+      </c>
+      <c r="T5" s="2">
+        <v>46</v>
+      </c>
+      <c r="U5" s="2">
+        <v>46</v>
+      </c>
+      <c r="V5" s="2">
+        <v>46</v>
+      </c>
+      <c r="W5" s="2">
+        <v>46</v>
+      </c>
+      <c r="X5" s="2">
+        <v>58.58</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>58.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <f>AVERAGE(B2:B4)</f>
+        <v>50.19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="F6" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43.97</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44</v>
+      </c>
+      <c r="I6" s="2">
+        <v>46</v>
+      </c>
+      <c r="J6" s="2">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2">
+        <v>46</v>
+      </c>
+      <c r="L6" s="2">
+        <v>46</v>
+      </c>
+      <c r="M6" s="2">
+        <v>46</v>
+      </c>
+      <c r="N6" s="2">
+        <v>46</v>
+      </c>
+      <c r="O6" s="4">
+        <f>AVERAGE(O2:O4)</f>
+        <v>57.589999999999996</v>
+      </c>
+      <c r="P6" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>46</v>
+      </c>
+      <c r="R6" s="2">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2">
+        <v>46</v>
+      </c>
+      <c r="T6" s="2">
+        <v>46</v>
+      </c>
+      <c r="U6" s="4">
+        <f>AVERAGE(U2,U3,U5)</f>
+        <v>53.07</v>
       </c>
       <c r="V6" s="4">
-        <f>AVERAGE(V3:V5)</f>
-        <v>40.06</v>
+        <f>AVERAGE(V2,V3,V5)</f>
+        <v>53.07</v>
+      </c>
+      <c r="W6" s="4">
+        <f>AVERAGE(W2,W3,W5)</f>
+        <v>53.07</v>
+      </c>
+      <c r="X6" s="4">
+        <f>AVERAGE(X2,X3,X5)</f>
+        <v>54.376666666666665</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>AVERAGE(Y2:Y5)</f>
+        <v>48.587500000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D159CD96-79DD-4FF6-91B4-4DFEA1FC4F13}">
+  <dimension ref="A1:Y6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="C2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="E2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="F2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="G2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="H2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="I2" s="2">
+        <v>26.02</v>
+      </c>
+      <c r="J2" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="K2" s="2">
+        <v>26.02</v>
+      </c>
+      <c r="L2" s="2">
+        <v>25.02</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="N2" s="4">
+        <f>AVERAGE(N3:N6)</f>
+        <v>28.087499999999999</v>
+      </c>
+      <c r="O2" s="4">
+        <f>AVERAGE(O3:O6)</f>
+        <v>31.217499999999998</v>
+      </c>
+      <c r="P2" s="4">
+        <f>AVERAGE(P4:P6)</f>
+        <v>21.783333333333331</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>AVERAGE(Q4:Q6)</f>
+        <v>21.783333333333331</v>
+      </c>
+      <c r="R2" s="4">
+        <f>AVERAGE(R3:R6)</f>
+        <v>27.272500000000001</v>
+      </c>
+      <c r="S2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="T2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="U2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="V2" s="4">
+        <f>AVERAGE(V3:V6)</f>
+        <v>30.21</v>
+      </c>
+      <c r="W2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="X2" s="2">
+        <v>22.01</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>22.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <f>AVERAGE(B2,B4:B6)</f>
+        <v>16.612500000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4">
+        <f>AVERAGE(D2,D4:D6)</f>
+        <v>15.860000000000003</v>
+      </c>
+      <c r="E3" s="4">
+        <f>AVERAGE(E2,E4:E6)</f>
+        <v>15.860000000000003</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(F2,F4:F6)</f>
+        <v>15.860000000000003</v>
+      </c>
+      <c r="G3" s="4">
+        <f>AVERAGE(G2,G4:G6)</f>
+        <v>15.860000000000003</v>
+      </c>
+      <c r="H3" s="2">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>24.01</v>
+      </c>
+      <c r="L3" s="4">
+        <f>AVERAGE(L2,L4:L6)</f>
+        <v>34.86</v>
+      </c>
+      <c r="M3" s="2">
+        <v>32</v>
+      </c>
+      <c r="N3" s="2">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>53</v>
+      </c>
+      <c r="P3" s="4">
+        <f>AVERAGE(P4:P6)</f>
+        <v>21.783333333333331</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>AVERAGE(Q4:Q6)</f>
+        <v>21.783333333333331</v>
+      </c>
+      <c r="R3" s="2">
+        <v>32</v>
+      </c>
+      <c r="S3" s="2">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2">
+        <v>53</v>
+      </c>
+      <c r="U3" s="4">
+        <f>AVERAGE(U2,U4:U6)</f>
+        <v>34.107500000000002</v>
+      </c>
+      <c r="V3" s="2">
+        <v>32</v>
+      </c>
+      <c r="W3" s="2">
+        <v>32</v>
+      </c>
+      <c r="X3" s="2">
+        <v>32</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="H4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5.69</v>
+      </c>
+      <c r="J4" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="K4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="L4" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="M4" s="4">
+        <f>AVERAGE(M2:M3,M5:M6)</f>
+        <v>36.605000000000004</v>
+      </c>
+      <c r="N4" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="O4" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="P4" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="R4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="S4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="T4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="U4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="V4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="W4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="X4" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="D5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="E5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="F5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="G5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="H5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="I5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="J5" s="2">
+        <v>15</v>
+      </c>
+      <c r="K5" s="2">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="M5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="N5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="O5" s="2">
+        <v>21.13</v>
+      </c>
+      <c r="P5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="R5" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="S5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="T5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="U5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="V5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="W5" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="X5" s="4">
+        <f>AVERAGE(X2:X4,X6)</f>
+        <v>29.155000000000001</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>17.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="E6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="F6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="G6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="H6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="I6" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="J6" s="2">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="M6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="N6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="O6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="P6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="R6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="S6" s="2">
+        <v>29.62</v>
+      </c>
+      <c r="T6" s="2">
+        <v>29.61</v>
+      </c>
+      <c r="U6" s="2">
+        <v>55.2</v>
+      </c>
+      <c r="V6" s="2">
+        <v>29.62</v>
       </c>
       <c r="W6" s="2">
-        <v>40.06</v>
+        <v>33</v>
       </c>
       <c r="X6" s="2">
-        <v>30.69</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="2">
-        <v>30.69</v>
+        <v>29.61</v>
       </c>
     </row>
   </sheetData>
